--- a/ tsp01-contratos-clientes/ITERACION01_TP01/AUDITORIA01/FORMATO_AUDITORIA_FINAL.xlsx
+++ b/ tsp01-contratos-clientes/ITERACION01_TP01/AUDITORIA01/FORMATO_AUDITORIA_FINAL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
   <si>
     <t>NC#:</t>
   </si>
@@ -79,43 +79,13 @@
     <t>Métrica Solutions SAC</t>
   </si>
   <si>
-    <t>Se ha evidenciado que existen artefactos como: Paquetes en el Documento de Arquitectura del Software que no han sido especificados en las Matrices de Trazabilidad propuestas para el Sistema de Gestión de Calidad.  </t>
-  </si>
-  <si>
     <t>Gabriela E. Rojas Munive</t>
   </si>
   <si>
     <t>Reconocimiento del representante de la organización:  Gabriela E. Rojas Munive</t>
   </si>
   <si>
-    <t>Se ha evidenciado que el Actor Lotizador UDRA el cual se encuentra en el Documento de Arquitectura del Software no ha sido especificados en las Matriz de Trazabilidad  MTRZ-0202-2011-2 Matriz de trazabilidad de Actores vs Casos de Uso el cual se encuentra en el Documento ENTREGABLE_FINAL_SISTEMAS PROCESAMIENTO.pdf</t>
-  </si>
-  <si>
-    <t>MTRZ-0202-2011-2 Matriz de trazabilidad de Actores vs Casos de Uso</t>
-  </si>
-  <si>
-    <t>09/12/2011 </t>
-  </si>
-  <si>
-    <t>Se incluirá al Actor Lotizador UDRA a la MTRZ-0202-2011-2 Matriz de trazabilidad de Actores vs Casos de Uso</t>
-  </si>
-  <si>
     <t>Gabriela E. Rojas Munive (09/12/2011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se se hizo el correcto traspaso de todos los Actores registrados en el Documento de Arquitectura del Software a la matriz de trazabilidad de  MTRZ-0202-2011-2 Matriz de trazabilidad de Actores vs Casos de Uso. </t>
-  </si>
-  <si>
-    <t>Tal como se aprecia en el Documento de Arquitectura del Software para los Paquetes: Definición reglas, UDRA, Consistencia básica, Captura, Consistencia Final y Seguridad</t>
-  </si>
-  <si>
-    <t>No se detectó a los Paquetes y no hay forma de establecer correspondencia con los Casos de Uso</t>
-  </si>
-  <si>
-    <t>Se creara un documento de guía para inventariar los Artefactos del Documento de Arquitectura del Software</t>
-  </si>
-  <si>
-    <t>Se creará la Matriz de Trazabilidad MTRZ-0211-2011-2 "Paquetes vs Casos de uso"</t>
   </si>
   <si>
     <r>
@@ -132,42 +102,15 @@
     </r>
   </si>
   <si>
-    <t>Se ha evidenciado que existen artefactos como: Clases del Dominio en el Documento de Arquitectura del Software que no han sido especificados en las Matrices de Trazabilidad propuestas para el Sistema de Gestión de Calidad.  </t>
-  </si>
-  <si>
-    <t>Tal como se aprecia en el Documento de Arquitectura del Software para los Clases del dominio (Faltó incluir Anexo de Modelo de Clases del dominio)</t>
-  </si>
-  <si>
-    <t>No se detectó las Clases del Dominio  y no hay forma de establecer correspondencia con las Clases del Análisis</t>
-  </si>
-  <si>
-    <t>Se creará la Matriz de Trazabilidad MTRZ-0212-2011-2 "Clases del Dominio vs Clases del Análisis"</t>
-  </si>
-  <si>
-    <t>Se ha evidenciado que los pasos seguidos para la generación de los casos de prueba no se han basado en el procedimiento descrito en el manual de calidad para la verificación del producto software.</t>
-  </si>
-  <si>
     <t>Norma Violada: “Procedimiento para la verificación del producto software“</t>
   </si>
   <si>
     <t>Infoware</t>
   </si>
   <si>
-    <t>No se generaron los casos de prueba siguiendo el procedimiento de verificación de producto software del manual de calidad.</t>
-  </si>
-  <si>
     <t>Verificación del Producto Software</t>
   </si>
   <si>
-    <t>Tal como se aprecia en el documento “Trabajo Gestion de la Calidad de Software v7.doc”, en el punto 4.4 “Procedimiento para la verificación del producto software”, específicamente en la  actividad 8.9, se indica que se debe Crear y firma el Registro de verificación de software Sin embargo no se encuentra evidencia de ello .</t>
-  </si>
-  <si>
-    <t>Generar evidencias y garantizar el uso del formato "Registro de verificación de software" especificado dentro del procedimiento de Verificacaión del Producto de Software.</t>
-  </si>
-  <si>
-    <t>Capacitar al personal involucrado en el porceso acerca del uso del procedimiento: 4.4 “Procedimiento para la verificación del producto software”.</t>
-  </si>
-  <si>
     <t>Sección 4- No conformidad cerrada por “Auditor” (fecha):</t>
   </si>
   <si>
@@ -177,27 +120,9 @@
     <t>Matrices de Trazabilidad</t>
   </si>
   <si>
-    <t>Se ha evidenciado la omisión de algunas matrices básicas e indispensables para realizar la trazabilidad de los artefactos de Software, según lo establece RUP (utilizado como referencia en la elaboración de este procedimiento).</t>
-  </si>
-  <si>
-    <t>José Del Río Ortega</t>
-  </si>
-  <si>
-    <t>Llevar un inventario de los artefactos ser trazados dentro del proyecto.</t>
-  </si>
-  <si>
-    <t>Omisión de  las matrices: "Casos de Prueba vs Casos de Uso" y "Casos de Prueba Vs Escenarios".</t>
-  </si>
-  <si>
-    <t>Incluir dentro del procedimiento como artefactos a trazar: Casos de prueba, escenarios de prueba. Además, se deben crear las matrices: "Casos de Prueba vs Casos de Uso" y "Casos de Prueba Vs Escenarios" para trazarlos.</t>
-  </si>
-  <si>
     <t>Norma Violada: “Matrices de Trazabilidad“</t>
   </si>
   <si>
-    <t>Tal como se aprecia en el documento “Trabajo Gestión de la Calidad de Software v7.doc”, en el punto 3 “Matrices de trazabilidad”, no existen las matrices: "Casos de Prueba vs Casos de Uso" y "Casos de Prueba Vs Escenarios". Cabe resaltar, que si bien existen evidencias del uso de estos artefactos (casos de prueba, escenarios), no se tiene una matriz para trazarlos. Además, dentro del procedimiento se hace referencia al estándar RUP, pero no se está aplicando al 100%, pues el  capítulo 11 del libro " Proceso Unificado de Software" se hace hincapié en la traza de estos artefactos (Casos de uso, casos de prueba y escenarios de prueba).</t>
-  </si>
-  <si>
     <t>OBSERVACIONES</t>
   </si>
   <si>
@@ -216,143 +141,25 @@
     <t>OTRO</t>
   </si>
   <si>
-    <t>3.1 Matriz de Trazabilidad de Stakeholders</t>
-  </si>
-  <si>
-    <t>No existe evidencia del Formato de Informe de trazabilidad de artefactos</t>
-  </si>
-  <si>
-    <t>Inconsistencia en la definición del Procedimiento</t>
-  </si>
-  <si>
-    <t>Se observó que en el procedimiento se hace referencia al uso del FORMATO DE SEGUIMIENTO A CONTRATOS CELEBRADOS POR INFOWARE, pero este no es utilizado en ninguna parte del flujo del proceso, ni se identifica quien lo debe llenar.</t>
-  </si>
-  <si>
-    <t>Procedimiento de Verificación del Producto de Software</t>
-  </si>
-  <si>
-    <t>Procedimiento de Revisión de Contratos</t>
-  </si>
-  <si>
-    <t>Pudimos observar también que, en las evidencias relacionadas con los casos de prueba, se hace una descripción del flujo básico y flujos alternos de los casos de uso, pero en los formatos de registros, no se indica que dicha información deba registrarse.</t>
-  </si>
-  <si>
     <t>ENCONTRADO POR / FECHA</t>
   </si>
   <si>
-    <t>JOSE DEL RÍO / 10/12/12011</t>
-  </si>
-  <si>
-    <t>Se ha evidenciado la creación de evidencias para los Procedimientos: 4.1 Procedimiento para el cambio de Documento, 4.3 Procedimiento de Control de versiones y 4.5 Procedimiento para la Revisión del Contrato.</t>
-  </si>
-  <si>
-    <t>Tal como se aprecia en la NTP ISO/IEC 900003 Punto 4.2.4 Control de registros: Los registros deben establecerse y mantenerse para proporcionar evidencia de la conformidad con los requisitos asi como de la operación eficaz del Sistema de gestión de la Calidad. Los registros deben permanecer legibles, fácilmente identificables y recuperación.</t>
-  </si>
-  <si>
     <t>10/12/2011 </t>
   </si>
   <si>
     <t>Norma Violada: “Control de los registros“</t>
   </si>
   <si>
-    <t>Se omitió el registro de evidencias para los Procedimientos definidos en el Manual de Calidad.</t>
-  </si>
-  <si>
     <t>Gabriela E. Rojas Munive (10/12/2011)</t>
   </si>
   <si>
-    <t>Generar registros de evidencia para  los Procedimientos: 4.1 Procedimiento para el cambio de Documento, 4.3 Procedimiento de Control de versiones y 4.5 Procedimiento para la Revisión del Contrato.</t>
-  </si>
-  <si>
-    <t>Establecer un procedimiento documentado para definir los controles necesarios para la identificación de los registros.</t>
-  </si>
-  <si>
     <t>Control de registros</t>
   </si>
   <si>
-    <t>GABRIELA ROJAS / 10/12/2011</t>
-  </si>
-  <si>
-    <t>En la Matriz de trazabilidad de menciona a los artefactos: CSW1: Departamento de Logística, CSW2: Gestión de Almacén, CSW3: Departamento de Contabilidad/Facturación y CSW4: Gestión de envíos</t>
-  </si>
-  <si>
-    <t>Manual de Calidad</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>Se observó que los documentos trabajados en el Manual de Calidad como: Procedimientos y registro no han sido debidamente inventariados.</t>
-  </si>
-  <si>
     <t>PROCEDIMIENTO(S)</t>
   </si>
   <si>
-    <t>Procedimiento para llevar a cabo la Trazabilidad.
-Procedimiento para el Control de versiones de los documentos.
-Procedimiento para Verificación de Producto software.
-Procedimiento para a Revisión de contratos.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Podemos observar que si  bien en el procedimiento, en el  punto 8.7, se indica que el jefe de calidad informa al </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>Analista de Pruebas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Arial Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> sobre el alcance  y las condiciones de las mismas, no se evidencia dicha información en ninguno de los formatos o registros usados en este procedimiento. Por ello, se cree necesario, especificar en algún lado las condiciones y criterios de aceptación de cada uno de los casos de prueba.</t>
-    </r>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procedimiento para llevar a cabo la Trazabilidad.
-</t>
-  </si>
-  <si>
-    <t>Se detectó que falta en el documento el Registro: Informe del Proceso de Trazabilidad del software. Sin embargo se hace referencia a este en la actividad 9.1 del Flujo del Procedimiento para llevar a cabo la Trazabilidad.</t>
-  </si>
-  <si>
-    <t>No existe evidencia del Anexo 10.1</t>
-  </si>
-  <si>
-    <t>Se detectó que falta el Anexo 10.1. Sin embargo se hace referencia de este en la actividad 3.2 del Flujo del Procedimiento Control de versiones el documento.</t>
-  </si>
-  <si>
-    <t>Procedimiento del Contol de versiones del documento</t>
-  </si>
-  <si>
-    <t>CARLOS NAVARRO / 10/12/2011</t>
-  </si>
-  <si>
-    <t>Artefactos no inventariado</t>
-  </si>
-  <si>
-    <t>No se estandarizaron Códigos de documentos</t>
-  </si>
-  <si>
-    <t>CARLOS CHOIS / 10/12/12011</t>
-  </si>
-  <si>
     <t>Norma Violada: Trazabilidad de artefactos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Trazabilidad de artefactos</t>
   </si>
   <si>
     <t>Trazabilidad de artefactos</t>
@@ -365,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,13 +205,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial Narrow"/>
@@ -861,159 +661,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect l="636"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="762000" y="5200650"/>
-          <a:ext cx="7439025" cy="3486150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3073" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="771525" y="5667375"/>
-          <a:ext cx="7305675" cy="4629150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4097" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="762000" y="5819775"/>
-          <a:ext cx="4867275" cy="5629275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1306,8 +953,8 @@
   </sheetPr>
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:K12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1348,9 +995,7 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
-        <v>98</v>
-      </c>
+      <c r="E4" s="15"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -1374,7 +1019,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -1387,9 +1032,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="2:11" ht="30.75" customHeight="1">
-      <c r="B7" s="33" t="s">
-        <v>19</v>
-      </c>
+      <c r="B7" s="33"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -1415,9 +1058,7 @@
       <c r="K8" s="38"/>
     </row>
     <row r="9" spans="2:11" ht="31.5" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>28</v>
-      </c>
+      <c r="B9" s="33"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -1430,7 +1071,7 @@
     </row>
     <row r="10" spans="2:11" ht="13.5" thickBot="1">
       <c r="B10" s="25" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -1446,13 +1087,11 @@
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="C11" s="20"/>
       <c r="D11" s="44"/>
       <c r="E11" s="21"/>
       <c r="F11" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
@@ -1464,9 +1103,7 @@
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="44"/>
       <c r="E12" s="21"/>
       <c r="F12" s="48"/>
@@ -1505,9 +1142,7 @@
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B15" s="41" t="s">
-        <v>29</v>
-      </c>
+      <c r="B15" s="41"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -1533,9 +1168,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="54" t="s">
-        <v>31</v>
-      </c>
+      <c r="B17" s="54"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -1573,9 +1206,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B20" s="41" t="s">
-        <v>30</v>
-      </c>
+      <c r="B20" s="41"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
@@ -1587,9 +1218,7 @@
       <c r="K20" s="43"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B21" s="39" t="s">
-        <v>13</v>
-      </c>
+      <c r="B21" s="39"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -1660,14 +1289,14 @@
     </row>
     <row r="26" spans="2:11" ht="13.5" thickBot="1">
       <c r="B26" s="60" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
       <c r="F26" s="62"/>
       <c r="G26" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
@@ -1715,7 +1344,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1727,7 +1355,7 @@
   <dimension ref="B1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:K15"/>
+      <selection activeCell="B19" sqref="B19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1773,7 +1401,7 @@
       <c r="C3" s="13"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
@@ -1798,7 +1426,7 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -1811,9 +1439,7 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="2:11" ht="42" customHeight="1">
-      <c r="B6" s="33" t="s">
-        <v>22</v>
-      </c>
+      <c r="B6" s="33"/>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34"/>
@@ -1839,9 +1465,7 @@
       <c r="K7" s="38"/>
     </row>
     <row r="8" spans="2:11" ht="21" customHeight="1">
-      <c r="B8" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="B8" s="33"/>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -1854,7 +1478,7 @@
     </row>
     <row r="9" spans="2:11" ht="13.5" thickBot="1">
       <c r="B9" s="25" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
@@ -1870,14 +1494,10 @@
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="C10" s="20"/>
       <c r="D10" s="44"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="45" t="s">
-        <v>21</v>
-      </c>
+      <c r="F10" s="45"/>
       <c r="G10" s="46"/>
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
@@ -1888,9 +1508,7 @@
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="C11" s="20"/>
       <c r="D11" s="44"/>
       <c r="E11" s="21"/>
       <c r="F11" s="48"/>
@@ -1929,9 +1547,7 @@
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="2:11" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B14" s="41" t="s">
-        <v>27</v>
-      </c>
+      <c r="B14" s="41"/>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
@@ -1957,9 +1573,7 @@
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="54" t="s">
-        <v>25</v>
-      </c>
+      <c r="B16" s="54"/>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
@@ -1997,9 +1611,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="2:11" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B19" s="41" t="s">
-        <v>30</v>
-      </c>
+      <c r="B19" s="41"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
       <c r="E19" s="42"/>
@@ -2084,14 +1696,14 @@
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1">
       <c r="B25" s="60" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
       <c r="F25" s="62"/>
       <c r="G25" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="61"/>
       <c r="I25" s="61"/>
@@ -2138,7 +1750,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2150,7 +1761,7 @@
   <dimension ref="B2:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:K18"/>
+      <selection activeCell="B20" sqref="B20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2198,7 +1809,7 @@
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="15" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -2223,7 +1834,7 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -2236,9 +1847,7 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="2:11" ht="35.25" customHeight="1">
-      <c r="B7" s="33" t="s">
-        <v>33</v>
-      </c>
+      <c r="B7" s="33"/>
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
@@ -2264,9 +1873,7 @@
       <c r="K8" s="38"/>
     </row>
     <row r="9" spans="2:11" ht="18" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>34</v>
-      </c>
+      <c r="B9" s="33"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -2279,7 +1886,7 @@
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1">
       <c r="B10" s="25" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
@@ -2296,12 +1903,12 @@
         <v>6</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="21"/>
       <c r="F11" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="46"/>
       <c r="H11" s="46"/>
@@ -2354,9 +1961,7 @@
       <c r="K14" s="17"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="41" t="s">
-        <v>35</v>
-      </c>
+      <c r="B15" s="41"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
       <c r="E15" s="42"/>
@@ -2382,9 +1987,7 @@
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="54" t="s">
-        <v>36</v>
-      </c>
+      <c r="B17" s="54"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
@@ -2422,9 +2025,7 @@
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="41" t="s">
-        <v>30</v>
-      </c>
+      <c r="B20" s="41"/>
       <c r="C20" s="42"/>
       <c r="D20" s="42"/>
       <c r="E20" s="42"/>
@@ -2509,14 +2110,14 @@
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
       <c r="B26" s="60" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
       <c r="F26" s="62"/>
       <c r="G26" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H26" s="61"/>
       <c r="I26" s="61"/>
@@ -2563,7 +2164,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2574,8 +2174,8 @@
   </sheetPr>
   <dimension ref="B4:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2604,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="22" t="s">
@@ -2623,7 +2223,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="22" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -2648,7 +2248,7 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -2661,9 +2261,7 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="2:11" ht="36" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>37</v>
-      </c>
+      <c r="B9" s="33"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -2689,9 +2287,7 @@
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="34.5" customHeight="1">
-      <c r="B11" s="33" t="s">
-        <v>42</v>
-      </c>
+      <c r="B11" s="33"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -2704,7 +2300,7 @@
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="B12" s="25" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -2720,13 +2316,11 @@
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="44"/>
       <c r="E13" s="21"/>
       <c r="F13" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
@@ -2738,9 +2332,7 @@
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="44"/>
       <c r="E14" s="21"/>
       <c r="F14" s="48"/>
@@ -2779,9 +2371,7 @@
       <c r="K16" s="17"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="41" t="s">
-        <v>40</v>
-      </c>
+      <c r="B17" s="41"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
@@ -2807,9 +2397,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="54" t="s">
-        <v>43</v>
-      </c>
+      <c r="B19" s="54"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
@@ -2847,9 +2435,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="41" t="s">
-        <v>44</v>
-      </c>
+      <c r="B22" s="41"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
       <c r="E22" s="42"/>
@@ -2918,7 +2504,7 @@
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
       <c r="B27" s="65" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C27" s="66"/>
       <c r="D27" s="66"/>
@@ -2934,14 +2520,14 @@
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
       <c r="B28" s="60" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
       <c r="F28" s="62"/>
       <c r="G28" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" s="61"/>
       <c r="I28" s="61"/>
@@ -2999,8 +2585,8 @@
   </sheetPr>
   <dimension ref="B4:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:K11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3029,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="22" t="s">
@@ -3048,7 +2634,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="22" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -3073,7 +2659,7 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -3086,9 +2672,7 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="2:11" ht="36" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>48</v>
-      </c>
+      <c r="B9" s="33"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -3114,9 +2698,7 @@
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="54" customHeight="1">
-      <c r="B11" s="33" t="s">
-        <v>54</v>
-      </c>
+      <c r="B11" s="33"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -3129,7 +2711,7 @@
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="B12" s="25" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -3145,13 +2727,11 @@
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="44"/>
       <c r="E13" s="21"/>
       <c r="F13" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
@@ -3163,9 +2743,7 @@
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="44"/>
       <c r="E14" s="21"/>
       <c r="F14" s="48"/>
@@ -3204,9 +2782,7 @@
       <c r="K16" s="17"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="41" t="s">
-        <v>51</v>
-      </c>
+      <c r="B17" s="41"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
@@ -3232,9 +2808,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B19" s="54" t="s">
-        <v>52</v>
-      </c>
+      <c r="B19" s="54"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
@@ -3272,9 +2846,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="41" t="s">
-        <v>50</v>
-      </c>
+      <c r="B22" s="41"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
       <c r="E22" s="42"/>
@@ -3359,14 +2931,14 @@
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
       <c r="B28" s="60" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
       <c r="F28" s="62"/>
       <c r="G28" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" s="61"/>
       <c r="I28" s="61"/>
@@ -3424,8 +2996,8 @@
   </sheetPr>
   <dimension ref="B4:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3453,9 +3025,7 @@
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>39</v>
-      </c>
+      <c r="F5" s="20"/>
       <c r="G5" s="21"/>
       <c r="H5" s="22" t="s">
         <v>2</v>
@@ -3473,7 +3043,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="22" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -3498,7 +3068,7 @@
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -3511,9 +3081,7 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="2:11" ht="36" customHeight="1">
-      <c r="B9" s="33" t="s">
-        <v>70</v>
-      </c>
+      <c r="B9" s="33"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -3539,9 +3107,7 @@
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="54" customHeight="1">
-      <c r="B11" s="33" t="s">
-        <v>71</v>
-      </c>
+      <c r="B11" s="33"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -3554,7 +3120,7 @@
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
       <c r="B12" s="25" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -3571,12 +3137,12 @@
         <v>6</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="21"/>
       <c r="F13" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="46"/>
       <c r="H13" s="46"/>
@@ -3589,7 +3155,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="21"/>
@@ -3629,9 +3195,7 @@
       <c r="K16" s="17"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="41" t="s">
-        <v>74</v>
-      </c>
+      <c r="B17" s="41"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
@@ -3657,9 +3221,7 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B19" s="54" t="s">
-        <v>76</v>
-      </c>
+      <c r="B19" s="54"/>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
@@ -3697,9 +3259,7 @@
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="54" t="s">
-        <v>77</v>
-      </c>
+      <c r="B22" s="54"/>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
@@ -3784,14 +3344,14 @@
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
       <c r="B28" s="60" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
       <c r="E28" s="61"/>
       <c r="F28" s="62"/>
       <c r="G28" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" s="61"/>
       <c r="I28" s="61"/>
@@ -3850,7 +3410,7 @@
   <dimension ref="B2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5703125" defaultRowHeight="13.5"/>
@@ -3866,7 +3426,7 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" s="67" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
@@ -3877,187 +3437,103 @@
     </row>
     <row r="3" spans="2:8" ht="27">
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="80.25" customHeight="1">
       <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="2:8" ht="116.25" customHeight="1">
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="2:8" ht="63" customHeight="1">
       <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="2:8" ht="63" customHeight="1">
       <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>93</v>
-      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="2:8" ht="78" customHeight="1">
       <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="2:8" ht="120" customHeight="1">
       <c r="B9" s="10">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="2:8" ht="81" customHeight="1">
       <c r="B10" s="10">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="10"/>

--- a/ tsp01-contratos-clientes/ITERACION01_TP01/AUDITORIA01/FORMATO_AUDITORIA_FINAL.xlsx
+++ b/ tsp01-contratos-clientes/ITERACION01_TP01/AUDITORIA01/FORMATO_AUDITORIA_FINAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15480" windowHeight="7995" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15480" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NC INT 01" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,15 @@
     <sheet name="NC EXT 03" sheetId="6" r:id="rId6"/>
     <sheet name="OBS" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="_Toc325375297" localSheetId="3">'NC EXT 01'!$B$89</definedName>
+  </definedNames>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="53">
   <si>
     <t>NC#:</t>
   </si>
@@ -105,16 +108,10 @@
     <t>Norma Violada: “Procedimiento para la verificación del producto software“</t>
   </si>
   <si>
-    <t>Infoware</t>
-  </si>
-  <si>
     <t>Verificación del Producto Software</t>
   </si>
   <si>
     <t>Sección 4- No conformidad cerrada por “Auditor” (fecha):</t>
-  </si>
-  <si>
-    <t>José Del Río (09/12/2011)</t>
   </si>
   <si>
     <t>Matrices de Trazabilidad</t>
@@ -167,12 +164,42 @@
   <si>
     <t> Trazabilidad de artefactos</t>
   </si>
+  <si>
+    <t>Auditoria de Seguimiento de procesos</t>
+  </si>
+  <si>
+    <t>Realizar un correcto traspaso de los artefactos a las Matrices de Trazabilidad correspondientes.</t>
+  </si>
+  <si>
+    <t>Gabriela E. Rojas Munive (22/05/2012)</t>
+  </si>
+  <si>
+    <t>Definir un Procedimiento para llevar a cabo la Trazabilidad de Artefactos a fin de garantizar la correcta traza de artefactos.</t>
+  </si>
+  <si>
+    <t>Matrices de Trazabilidad: 15.1 Casos de Uso del Negocio vs Reglas del Negocio, 15.2 Casos de Uso del Negocio vs Trabajadores del Negocio y 15.3 Casos de Uso del Negocio vs Entidades del Negocio</t>
+  </si>
+  <si>
+    <t>Evidencia de falta de correspondencia entre artfactos y Matrices de Trazabilidad</t>
+  </si>
+  <si>
+    <t>Se ha evidenciado que los siguiente artefactos:  Casos de uso de negocio (6.1, 6.2 y 6.3) , Reglas de negocio (3. Especificación de Reglas del Negocio) , Trabajadores de negocio (5.1 Especificación de Trabajadores del Negocio) y Entidades de negocio (5.2 Especificación de Entidades del Negocio) no tienen correspondencia en las siguientes Matrices de Trazabilidad: 15.1 Casos de Uso del Negocio vs Reglas del Negocio, 15.2 Casos de Uso del Negocio vs Trabajadores del Negocio y 15.3 Casos de Uso del Negocio vs Entidades del Negocio</t>
+  </si>
+  <si>
+    <t>Evidencia:</t>
+  </si>
+  <si>
+    <t>No se se hizo el correcto traspaso de todos los  artefactos Casos de uso de negocio (6.1, 6.2 y 6.3) , Reglas de negocio (3. Especificación de Reglas del Negocio) , Trabajadores de negocio (5.1 Especificación de Trabajadores del Negocio) y Entidades de negocio (5.2 Especificación de Entidades del Negocio) a las  Matrices de Trazabilidad: 15.1 Casos de Uso del Negocio vs Reglas del Negocio, 15.2 Casos de Uso del Negocio vs Trabajadores del Negocio y 15.3 Casos de Uso del Negocio vs Entidades del Negocio</t>
+  </si>
+  <si>
+    <t>Se ha detectado que en los siguientes acapites no tienen contenido alguno</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +237,40 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,17 +363,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -424,6 +478,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -487,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -506,43 +571,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -550,9 +630,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
@@ -571,29 +648,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -603,32 +698,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -639,17 +719,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -661,6 +786,1391 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="371475" y="18316575"/>
+          <a:ext cx="4419600" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="18478500"/>
+          <a:ext cx="2076450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1333500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="19678650"/>
+          <a:ext cx="2085975" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5029200" y="20412075"/>
+          <a:ext cx="2781300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="18173700"/>
+          <a:ext cx="3228975" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2054" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect t="28847"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="19945350"/>
+          <a:ext cx="4181475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2055" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5029200" y="18735675"/>
+          <a:ext cx="4086225" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2056" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="20688300"/>
+          <a:ext cx="4171950" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2057" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2400300" y="21917025"/>
+          <a:ext cx="4429125" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2058" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="542925" y="27270075"/>
+          <a:ext cx="3924300" cy="2447925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2059" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5029200" y="13239750"/>
+          <a:ext cx="2390775" cy="4705350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2060" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="7315200"/>
+          <a:ext cx="3543300" cy="4419600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2061" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3933825" y="7124700"/>
+          <a:ext cx="4105275" cy="5848350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2062" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="13525500"/>
+          <a:ext cx="2076450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2063" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="14725650"/>
+          <a:ext cx="2085975" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2064" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="371475" y="15459075"/>
+          <a:ext cx="2781300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2065" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="13220700"/>
+          <a:ext cx="3228975" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2066" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:srcRect t="28847"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="14992350"/>
+          <a:ext cx="4181475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2067" name="Picture 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="371475" y="13782675"/>
+          <a:ext cx="4086225" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2068" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="15735300"/>
+          <a:ext cx="4171950" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2069" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="24945975"/>
+          <a:ext cx="3981450" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2070" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="361950" y="25707975"/>
+          <a:ext cx="4219575" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2071" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="371475" y="26508075"/>
+          <a:ext cx="4124325" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2072" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="25250775"/>
+          <a:ext cx="2076450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2073" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="26450925"/>
+          <a:ext cx="2085975" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2074" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5029200" y="27184350"/>
+          <a:ext cx="2781300" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2075" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="24945975"/>
+          <a:ext cx="3228975" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2076" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print"/>
+        <a:srcRect t="28847"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="26717625"/>
+          <a:ext cx="4181475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2077" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5029200" y="25507950"/>
+          <a:ext cx="4086225" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2078" name="Picture 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5019675" y="27460575"/>
+          <a:ext cx="4171950" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -953,7 +2463,7 @@
   </sheetPr>
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20:K21"/>
     </sheetView>
   </sheetViews>
@@ -969,339 +2479,339 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="24">
         <v>1</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="20">
+      <c r="I3" s="29"/>
+      <c r="J3" s="26">
         <v>1</v>
       </c>
-      <c r="K3" s="24"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" ht="30.75" customHeight="1">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="2:11" ht="31.5" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
+      <c r="B10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" thickBot="1">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="45" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="2:11" ht="13.5" thickBot="1">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="55"/>
     </row>
     <row r="19" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B21" s="39"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="15" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="46"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B24" s="39"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="40"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="13" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -1318,9 +2828,9 @@
     <mergeCell ref="F11:K12"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B15:K15"/>
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
@@ -1343,7 +2853,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1374,375 +2884,375 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="24">
         <v>2</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="20">
+      <c r="I2" s="29"/>
+      <c r="J2" s="26">
         <v>1</v>
       </c>
-      <c r="K2" s="24"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
     </row>
     <row r="4" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="2:11" ht="42" customHeight="1">
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="44"/>
     </row>
     <row r="8" spans="2:11" ht="21" customHeight="1">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B9" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
+      <c r="B9" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" thickBot="1">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" thickBot="1">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="50"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="62"/>
     </row>
     <row r="12" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="2:11" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="2:11" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="2:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="15" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="40"/>
+      <c r="J21" s="46"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B23" s="39"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="40"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="46"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="13" t="s">
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="14"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:K3"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B14:K14"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:K11"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B7:K7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -1782,381 +3292,381 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="24">
         <v>3</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="20">
+      <c r="I3" s="29"/>
+      <c r="J3" s="26">
         <v>1</v>
       </c>
-      <c r="K3" s="24"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" ht="35.25" customHeight="1">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="2:11" ht="18" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
+      <c r="B10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="45" t="s">
+      <c r="D11" s="56"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="50"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="17"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="23"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="14"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="57"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="59"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="55"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="14"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="15" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="40"/>
+      <c r="J22" s="46"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="39"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="40"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="46"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="13" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="14"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:H22"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:K4"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B15:K15"/>
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:K12"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B8:K8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -2172,13 +3682,18 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B4:K28"/>
+  <dimension ref="B4:K123"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="1"/>
@@ -2196,343 +3711,581 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="24">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="29"/>
+      <c r="J5" s="26">
+        <v>1</v>
+      </c>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="20">
-        <v>1</v>
-      </c>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="2:11" ht="36" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="2:11" ht="54" customHeight="1">
+      <c r="B9" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-    </row>
-    <row r="11" spans="2:11" ht="34.5" customHeight="1">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
+      <c r="B10" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
+    </row>
+    <row r="11" spans="2:11" ht="28.5" customHeight="1">
+      <c r="B11" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="45" t="s">
+      <c r="C13" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
+      <c r="C14" s="79">
+        <v>41051</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" ht="58.5" customHeight="1" thickBot="1">
+      <c r="B17" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="82"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56"/>
+      <c r="B19" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="88"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="15" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="40"/>
+      <c r="J24" s="46"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="39"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="40"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="46"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="13" t="s">
+      <c r="B27" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63" t="s">
+      <c r="B28" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="15"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="15"/>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="15"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="15"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="15"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="15"/>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="15"/>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="15"/>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="15"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="15"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="15"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="15"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="15"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="15"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="15"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="15"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="15"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="15"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="15"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="15"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="15"/>
+    </row>
+    <row r="81" spans="2:11">
+      <c r="B81" s="15"/>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82" s="15"/>
+    </row>
+    <row r="83" spans="2:11">
+      <c r="B83" s="15"/>
+    </row>
+    <row r="84" spans="2:11">
+      <c r="B84" s="15"/>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" s="15"/>
+    </row>
+    <row r="86" spans="2:11">
+      <c r="B86" s="15"/>
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" s="15"/>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+    </row>
+    <row r="89" spans="2:11" ht="18">
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="2:11" ht="15.75">
+      <c r="B90" s="13"/>
+    </row>
+    <row r="91" spans="2:11" ht="15.75">
+      <c r="B91" s="13"/>
+    </row>
+    <row r="92" spans="2:11" ht="15.75">
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="2:11" ht="15.75">
+      <c r="B93" s="13"/>
+    </row>
+    <row r="94" spans="2:11" ht="15.75">
+      <c r="B94" s="14"/>
+    </row>
+    <row r="95" spans="2:11" ht="15.75">
+      <c r="B95" s="13"/>
+    </row>
+    <row r="96" spans="2:11" ht="15.75">
+      <c r="B96" s="14"/>
+    </row>
+    <row r="123" spans="2:11">
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -2543,6 +4296,7 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B22:K22"/>
     <mergeCell ref="B21:K21"/>
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
@@ -2561,7 +4315,6 @@
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B22:K22"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="B24:C24"/>
@@ -2574,7 +4327,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="720" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="720" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2585,11 +4339,17 @@
   </sheetPr>
   <dimension ref="B4:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:11" ht="15.75" thickBot="1">
       <c r="B4" s="1"/>
@@ -2607,343 +4367,349 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="24">
         <v>2</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="20">
+      <c r="I5" s="29"/>
+      <c r="J5" s="26">
         <v>1</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="2:11" ht="36" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="2:11" ht="19.5" customHeight="1">
+      <c r="B9" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="2:11" ht="54" customHeight="1">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
+      <c r="B12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="45" t="s">
+      <c r="C13" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
+      <c r="C14" s="79">
+        <v>41051</v>
+      </c>
+      <c r="D14" s="77"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="15" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="40"/>
+      <c r="J24" s="46"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="39"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="40"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="46"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="13" t="s">
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63" t="s">
+      <c r="B28" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -2954,6 +4720,7 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B22:K22"/>
     <mergeCell ref="B21:K21"/>
     <mergeCell ref="B10:K10"/>
     <mergeCell ref="B11:K11"/>
@@ -2972,7 +4739,6 @@
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B22:K22"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="B24:C24"/>
@@ -2985,7 +4751,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="720" r:id="rId1"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="720" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3018,345 +4784,345 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="24">
         <v>3</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="20">
+      <c r="I5" s="29"/>
+      <c r="J5" s="26">
         <v>1</v>
       </c>
-      <c r="K5" s="24"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="2:11" ht="36" customHeight="1">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="2:11" ht="54" customHeight="1">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
+      <c r="B12" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="45" t="s">
+      <c r="D13" s="56"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="59"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="56"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B15" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="65"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B16" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B18" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="2:11" ht="28.5" customHeight="1">
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="55"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B23" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B24" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="46"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B25" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B26" s="45"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B27" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B28" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="50"/>
-    </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="56"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="57"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="56"/>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="40"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="39"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="40"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="63" t="s">
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="62"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -3368,33 +5134,33 @@
     <mergeCell ref="B25:K25"/>
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="G27:K27"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="B21:K21"/>
     <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B12:K12"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B18:K18"/>
     <mergeCell ref="B19:K19"/>
     <mergeCell ref="B20:K20"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3409,7 +5175,7 @@
   </sheetPr>
   <dimension ref="B2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3425,37 +5191,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="B2" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="2:8" ht="27">
       <c r="B3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="80.25" customHeight="1">

--- a/ tsp01-contratos-clientes/ITERACION01_TP01/AUDITORIA01/FORMATO_AUDITORIA_FINAL.xlsx
+++ b/ tsp01-contratos-clientes/ITERACION01_TP01/AUDITORIA01/FORMATO_AUDITORIA_FINAL.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15480" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15480" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="NC INT 01" sheetId="1" r:id="rId1"/>
@@ -13,17 +13,18 @@
     <sheet name="NC EXT 01" sheetId="4" r:id="rId4"/>
     <sheet name="NC EXT 02" sheetId="5" r:id="rId5"/>
     <sheet name="NC EXT 03" sheetId="6" r:id="rId6"/>
-    <sheet name="OBS" sheetId="7" r:id="rId7"/>
+    <sheet name="NC EXT 04" sheetId="8" r:id="rId7"/>
+    <sheet name="OBS" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc325375297" localSheetId="3">'NC EXT 01'!$B$89</definedName>
   </definedNames>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="56">
   <si>
     <t>NC#:</t>
   </si>
@@ -193,6 +194,15 @@
   </si>
   <si>
     <t>Se ha detectado que en los siguientes acapites no tienen contenido alguno</t>
+  </si>
+  <si>
+    <t>Se evidencio la referencia a procedimientos que no se encuentran en el documento</t>
+  </si>
+  <si>
+    <t>Se evidencio que no existe navegabilidad entre los artefactos Entidad(es) del negocio y Trabajador(es) del negocio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se evidencio que los artefactos </t>
   </si>
 </sst>
 </file>
@@ -552,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -583,22 +593,146 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -606,127 +740,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -736,45 +787,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2174,7 +2186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2463,8 +2475,8 @@
   </sheetPr>
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2479,342 +2491,370 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="31">
         <v>1</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="26">
+      <c r="I3" s="73"/>
+      <c r="J3" s="39">
         <v>1</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="2:11" ht="30.75" customHeight="1">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
+      <c r="B7" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
     </row>
     <row r="9" spans="2:11" ht="31.5" customHeight="1">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" thickBot="1">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="57" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="2:11" ht="13.5" thickBot="1">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
     </row>
     <row r="14" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B21" s="45"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="21" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="46"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B24" s="45"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="46"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="19" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="68"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:K12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="B22:C22"/>
@@ -2824,32 +2864,6 @@
     <mergeCell ref="B24:K24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="G25:K25"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:K12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2884,363 +2898,348 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="31">
         <v>2</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="26">
+      <c r="I2" s="73"/>
+      <c r="J2" s="39">
         <v>1</v>
       </c>
-      <c r="K2" s="30"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
     </row>
     <row r="6" spans="2:11" ht="42" customHeight="1">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="67"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="44"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
     </row>
     <row r="8" spans="2:11" ht="21" customHeight="1">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" thickBot="1">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" thickBot="1">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="62"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="48"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="2:11" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="50"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="58"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
     </row>
     <row r="20" spans="2:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="21" t="s">
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="46"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B23" s="45"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="46"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="19" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="20"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="69" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="68"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
     <mergeCell ref="B12:K12"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:K3"/>
@@ -3253,10 +3252,25 @@
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3292,369 +3306,354 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="31">
         <v>3</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="26">
+      <c r="I3" s="73"/>
+      <c r="J3" s="39">
         <v>1</v>
       </c>
-      <c r="K3" s="30"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
     </row>
     <row r="7" spans="2:11" ht="35.25" customHeight="1">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="44"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
     </row>
     <row r="9" spans="2:11" ht="18" customHeight="1">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="57" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="59"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="62"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="65"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="48"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="52"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="49"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="52"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="21" t="s">
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="46"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="45"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="46"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="19" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="20"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="69" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="68"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:K4"/>
@@ -3667,10 +3666,25 @@
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B8:K8"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3711,357 +3725,357 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="31">
         <v>1</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="28" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="26">
+      <c r="I5" s="73"/>
+      <c r="J5" s="39">
         <v>1</v>
       </c>
-      <c r="K5" s="30"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="28" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" spans="2:11" ht="54" customHeight="1">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="85"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="57" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="87">
         <v>41051</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="58.5" customHeight="1" thickBot="1">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="88"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="85"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="21" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="46"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="46"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="19" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="69" t="s">
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="68"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="15" t="s">
@@ -4289,18 +4303,15 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B19:K19"/>
@@ -4315,15 +4326,18 @@
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4339,7 +4353,7 @@
   </sheetPr>
   <dimension ref="B4:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -4367,364 +4381,361 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="31">
         <v>2</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="78"/>
-      <c r="H5" s="28" t="s">
+      <c r="G5" s="76"/>
+      <c r="H5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="26">
+      <c r="I5" s="73"/>
+      <c r="J5" s="39">
         <v>1</v>
       </c>
-      <c r="K5" s="30"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="28" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" spans="2:11" ht="19.5" customHeight="1">
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" spans="2:11" ht="54" customHeight="1">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="57" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="87">
         <v>41051</v>
       </c>
-      <c r="D14" s="77"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="21" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="46"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="46"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="19" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="69" t="s">
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="68"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B19:K19"/>
@@ -4739,15 +4750,18 @@
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:K6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4762,8 +4776,8 @@
   </sheetPr>
   <dimension ref="B4:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:K22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4784,345 +4798,762 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="31">
         <v>3</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="26">
+      <c r="I5" s="73"/>
+      <c r="J5" s="39">
         <v>1</v>
       </c>
-      <c r="K5" s="30"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="28" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
     </row>
     <row r="9" spans="2:11" ht="36" customHeight="1">
-      <c r="B9" s="39"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
+      <c r="B9" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="44"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
     </row>
     <row r="11" spans="2:11" ht="54" customHeight="1">
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="57" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="62"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="65"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="49"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="55"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="21" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="46"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="46"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="19" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="20"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="68"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="35">
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="720" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B4:K28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31">
+        <v>4</v>
+      </c>
+      <c r="D5" s="71"/>
+      <c r="E5" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="73"/>
+      <c r="J5" s="39">
+        <v>1</v>
+      </c>
+      <c r="K5" s="74"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B6" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
+    </row>
+    <row r="9" spans="2:11" ht="36" customHeight="1">
+      <c r="B9" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="67"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
+    </row>
+    <row r="11" spans="2:11" ht="54" customHeight="1">
+      <c r="B11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B12" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B15" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="52"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B18" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="2:11" ht="28.5" customHeight="1">
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="55"/>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="58"/>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B21" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="55"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B25" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B26" s="24"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B27" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B28" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -5135,40 +5566,39 @@
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="G27:K27"/>
-    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:K6"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B10:K10"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="720" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
@@ -5191,15 +5621,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
     </row>
     <row r="3" spans="2:8" ht="27">
       <c r="B3" s="9" t="s">

--- a/ tsp01-contratos-clientes/ITERACION01_TP01/AUDITORIA01/FORMATO_AUDITORIA_FINAL.xlsx
+++ b/ tsp01-contratos-clientes/ITERACION01_TP01/AUDITORIA01/FORMATO_AUDITORIA_FINAL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15480" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15480" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NC INT 01" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="63">
   <si>
     <t>NC#:</t>
   </si>
@@ -196,13 +196,34 @@
     <t>Se ha detectado que en los siguientes acapites no tienen contenido alguno</t>
   </si>
   <si>
-    <t>Se evidencio la referencia a procedimientos que no se encuentran en el documento</t>
-  </si>
-  <si>
     <t>Se evidencio que no existe navegabilidad entre los artefactos Entidad(es) del negocio y Trabajador(es) del negocio</t>
   </si>
   <si>
     <t xml:space="preserve">Se evidencio que los artefactos </t>
+  </si>
+  <si>
+    <t>Paola Rojas Chicoma</t>
+  </si>
+  <si>
+    <t>Se evidencio que el Diagrama de Actividades no se corresponde adecuadamente con el despliegue de las actividades especificadas en el Caso de Uso 6.1. AC_CUN001_Planificar_Auditoría</t>
+  </si>
+  <si>
+    <t>Caso de Uso 6.1. AC_CUN001_Planificar_Auditoría</t>
+  </si>
+  <si>
+    <t>Paola Rojas Chicoma (23/05/2012)</t>
+  </si>
+  <si>
+    <t>En la especificación del Caso de Uso  6.1. AC_CUN001_Planificar_Auditoría no se consideró el flujo alterno, el cual si figura en su correspondiente Diagrama de Actividades.</t>
+  </si>
+  <si>
+    <t>Norma Violada: “Revisión en el desarrollo del software“</t>
+  </si>
+  <si>
+    <t>Definir un Procedimiento para llevar a cabo la revisión en el desarrollo del software a fin de garantizar la correcta aplicación de la metodología RUP.</t>
+  </si>
+  <si>
+    <t>Tener conocimientos de la metodología RUP para realizar una correcta revisión del desarrollo del software.</t>
   </si>
 </sst>
 </file>
@@ -562,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -595,144 +616,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -740,12 +639,167 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
@@ -755,41 +809,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2475,7 +2499,7 @@
   </sheetPr>
   <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:K7"/>
     </sheetView>
   </sheetViews>
@@ -2491,370 +2515,344 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="26">
         <v>1</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="72" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="39">
+      <c r="I3" s="31"/>
+      <c r="J3" s="28">
         <v>1</v>
       </c>
-      <c r="K3" s="74"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="2:11" ht="30.75" customHeight="1">
-      <c r="B7" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
+      <c r="B7" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="2:11" ht="31.5" customHeight="1">
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" thickBot="1">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="40" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="2:11" ht="13.5" thickBot="1">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="39"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
     </row>
     <row r="16" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B21" s="24"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29" t="s">
+      <c r="D22" s="72"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="30"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B24" s="24"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="30"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="54"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37" t="s">
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23" t="s">
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:K12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="B22:C22"/>
@@ -2864,6 +2862,32 @@
     <mergeCell ref="B24:K24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="G25:K25"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:K12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2898,344 +2922,363 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="26">
         <v>2</v>
       </c>
-      <c r="D2" s="71"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="29"/>
+      <c r="H2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="39">
+      <c r="I2" s="31"/>
+      <c r="J2" s="28">
         <v>1</v>
       </c>
-      <c r="K2" s="74"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="33"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="46"/>
     </row>
     <row r="6" spans="2:11" ht="42" customHeight="1">
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="67"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
     </row>
     <row r="8" spans="2:11" ht="21" customHeight="1">
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="67"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
     </row>
     <row r="9" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" thickBot="1">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" thickBot="1">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="25"/>
     </row>
     <row r="14" spans="2:11" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B14" s="50"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="55"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
     </row>
     <row r="20" spans="2:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29" t="s">
+      <c r="D21" s="72"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="30"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="33"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B23" s="24"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="30"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="54"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37" t="s">
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23" t="s">
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -3252,25 +3295,6 @@
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3306,350 +3330,369 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="26">
         <v>3</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="72" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="39">
+      <c r="I3" s="31"/>
+      <c r="J3" s="28">
         <v>1</v>
       </c>
-      <c r="K3" s="74"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46"/>
     </row>
     <row r="7" spans="2:11" ht="35.25" customHeight="1">
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="67"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
     </row>
     <row r="9" spans="2:11" ht="18" customHeight="1">
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="40" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="45"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="48"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="52"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="57"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="52"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="57"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29" t="s">
+      <c r="D22" s="72"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="30"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="24"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="30"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="54"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37" t="s">
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23" t="s">
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="22"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -3666,25 +3709,6 @@
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3698,8 +3722,8 @@
   </sheetPr>
   <dimension ref="B4:K123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3725,143 +3749,143 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="26">
         <v>1</v>
       </c>
-      <c r="D5" s="71"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="72" t="s">
+      <c r="G5" s="86"/>
+      <c r="H5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="39">
+      <c r="I5" s="31"/>
+      <c r="J5" s="28">
         <v>1</v>
       </c>
-      <c r="K5" s="74"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="72" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="2:11" ht="54" customHeight="1">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="40" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
@@ -3870,212 +3894,212 @@
       <c r="C14" s="87">
         <v>41051</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="58.5" customHeight="1" thickBot="1">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="83"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="90"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29" t="s">
+      <c r="D24" s="72"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="24"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="30"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="54"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="23" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="15" t="s">
@@ -4303,15 +4327,16 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:K6"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B19:K19"/>
@@ -4328,16 +4353,15 @@
     <mergeCell ref="B18:K18"/>
     <mergeCell ref="B22:K22"/>
     <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4381,141 +4405,141 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="26">
         <v>2</v>
       </c>
-      <c r="D5" s="71"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="72" t="s">
+      <c r="G5" s="86"/>
+      <c r="H5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="39">
+      <c r="I5" s="31"/>
+      <c r="J5" s="28">
         <v>1</v>
       </c>
-      <c r="K5" s="74"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="72" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="2:11" ht="19.5" customHeight="1">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="80"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="2:11" ht="54" customHeight="1">
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="40" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
@@ -4524,218 +4548,219 @@
       <c r="C14" s="87">
         <v>41051</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="50"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="52"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29" t="s">
+      <c r="D24" s="72"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="24"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="30"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="54"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="23" t="s">
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:K6"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B19:K19"/>
@@ -4752,16 +4777,15 @@
     <mergeCell ref="B18:K18"/>
     <mergeCell ref="B22:K22"/>
     <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4776,8 +4800,8 @@
   </sheetPr>
   <dimension ref="B4:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:K11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4798,375 +4822,358 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="26">
         <v>3</v>
       </c>
-      <c r="D5" s="71"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="72" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="39">
+      <c r="I5" s="31"/>
+      <c r="J5" s="28">
         <v>1</v>
       </c>
-      <c r="K5" s="74"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="72" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="62" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
+    </row>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-    </row>
-    <row r="9" spans="2:11" ht="36" customHeight="1">
-      <c r="B9" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="68" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
+    </row>
+    <row r="9" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
+      <c r="B9" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="90"/>
+    </row>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B10" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
-    </row>
-    <row r="11" spans="2:11" ht="54" customHeight="1">
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1">
+      <c r="B11" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="B12" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="40" t="s">
+      <c r="C13" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
+      <c r="C14" s="92">
+        <v>41052</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="25"/>
     </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
+    <row r="17" spans="2:11" ht="27.75" customHeight="1" thickBot="1">
+      <c r="B17" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
+      <c r="B19" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="55"/>
+      <c r="B22" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="90"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29" t="s">
+      <c r="D24" s="72"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="24"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="30"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="54"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23" t="s">
+      <c r="B28" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:K28"/>
@@ -5177,6 +5184,31 @@
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5213,350 +5245,376 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="26">
         <v>4</v>
       </c>
-      <c r="D5" s="71"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="72" t="s">
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="39">
+      <c r="I5" s="31"/>
+      <c r="J5" s="28">
         <v>1</v>
       </c>
-      <c r="K5" s="74"/>
+      <c r="K5" s="32"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="72" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="2:11" ht="36" customHeight="1">
-      <c r="B9" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
+      <c r="B9" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="2:11" ht="54" customHeight="1">
-      <c r="B11" s="65"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="40" t="s">
+      <c r="D13" s="58"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="48"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="50"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="52"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="55"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="53" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29" t="s">
+      <c r="D24" s="72"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="24"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="30"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="54"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="37" t="s">
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="22"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23" t="s">
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="22"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:K28"/>
     <mergeCell ref="B24:C24"/>
@@ -5566,32 +5624,6 @@
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="G27:K27"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="720" r:id="rId1"/>

--- a/ tsp01-contratos-clientes/ITERACION01_TP01/AUDITORIA01/FORMATO_AUDITORIA_FINAL.xlsx
+++ b/ tsp01-contratos-clientes/ITERACION01_TP01/AUDITORIA01/FORMATO_AUDITORIA_FINAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="62">
   <si>
     <t>NC#:</t>
   </si>
@@ -217,13 +217,10 @@
     <t>En la especificación del Caso de Uso  6.1. AC_CUN001_Planificar_Auditoría no se consideró el flujo alterno, el cual si figura en su correspondiente Diagrama de Actividades.</t>
   </si>
   <si>
-    <t>Norma Violada: “Revisión en el desarrollo del software“</t>
-  </si>
-  <si>
-    <t>Definir un Procedimiento para llevar a cabo la revisión en el desarrollo del software a fin de garantizar la correcta aplicación de la metodología RUP.</t>
-  </si>
-  <si>
-    <t>Tener conocimientos de la metodología RUP para realizar una correcta revisión del desarrollo del software.</t>
+    <t>Tener conocimientos de la metodología RUP para realizar una correcta revisión del diseño y desarrollo del software.</t>
+  </si>
+  <si>
+    <t>Definir un Procedimiento para llevar a cabo la revisión en el diseño y desarrollo del software a fin de garantizar la correcta aplicación de la metodología RUP.</t>
   </si>
 </sst>
 </file>
@@ -616,22 +613,144 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -639,127 +758,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -770,50 +806,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2515,358 +2512,350 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="31">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="28">
+      <c r="I3" s="73"/>
+      <c r="J3" s="61">
         <v>1</v>
       </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="2:11" ht="30.75" customHeight="1">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="49"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="31.5" customHeight="1">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" thickBot="1">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="59" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="2:11" ht="13.5" thickBot="1">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B21" s="53"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="23" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="54"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B24" s="53"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="54"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="21" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B18:K18"/>
     <mergeCell ref="B10:K10"/>
@@ -2882,12 +2871,20 @@
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B14:K14"/>
     <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:K25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2922,363 +2919,344 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="31">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="28">
+      <c r="I2" s="73"/>
+      <c r="J2" s="61">
         <v>1</v>
       </c>
-      <c r="K2" s="32"/>
+      <c r="K2" s="74"/>
     </row>
     <row r="3" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="25"/>
     </row>
     <row r="4" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
     </row>
     <row r="6" spans="2:11" ht="42" customHeight="1">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="60"/>
     </row>
     <row r="8" spans="2:11" ht="21" customHeight="1">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
     </row>
     <row r="9" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="2:11" ht="13.5" thickBot="1">
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
     </row>
     <row r="11" spans="2:11" ht="13.5" thickBot="1">
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
     </row>
     <row r="13" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="25"/>
     </row>
     <row r="14" spans="2:11" ht="48.75" customHeight="1" thickBot="1">
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
     </row>
     <row r="20" spans="2:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="25"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="23" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="54"/>
+      <c r="J21" s="30"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B23" s="53"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="54"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="30"/>
     </row>
     <row r="24" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="21" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
     </row>
     <row r="25" spans="2:11" ht="13.5" thickBot="1">
-      <c r="B25" s="68" t="s">
+      <c r="B25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="70"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B21:C21"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
@@ -3295,6 +3273,25 @@
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3330,369 +3327,350 @@
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="31">
         <v>3</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="28">
+      <c r="I3" s="73"/>
+      <c r="J3" s="61">
         <v>1</v>
       </c>
-      <c r="K3" s="32"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="25"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="2:11" ht="35.25" customHeight="1">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="49"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="60"/>
     </row>
     <row r="9" spans="2:11" ht="18" customHeight="1">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="59" t="s">
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="22"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="23" t="s">
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J22" s="54"/>
+      <c r="J22" s="30"/>
       <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="53"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="54"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="30"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="21" t="s">
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="22"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="68" t="s">
+      <c r="B26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="70"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -3709,6 +3687,25 @@
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B9:K9"/>
     <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3723,7 +3720,7 @@
   <dimension ref="B4:K123"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:K19"/>
+      <selection activeCell="B12" sqref="B12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3749,357 +3746,357 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="31">
         <v>1</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="79"/>
+      <c r="H5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="28">
+      <c r="I5" s="73"/>
+      <c r="J5" s="61">
         <v>1</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="30" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="2:11" ht="54" customHeight="1">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="80"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="59" t="s">
+      <c r="D13" s="83"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="84">
         <v>41051</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="58.5" customHeight="1" thickBot="1">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="83"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="87"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="23" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="54"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="53"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="54"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="21" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="71" t="s">
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="15" t="s">
@@ -4327,28 +4324,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B18:K18"/>
     <mergeCell ref="B22:K22"/>
@@ -4362,6 +4337,28 @@
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="G27:K27"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4405,374 +4402,352 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="31">
         <v>2</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="30" t="s">
+      <c r="G5" s="79"/>
+      <c r="H5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="28">
+      <c r="I5" s="73"/>
+      <c r="J5" s="61">
         <v>1</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="30" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="2:11" ht="19.5" customHeight="1">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="80"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="77"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="54" customHeight="1">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="59" t="s">
+      <c r="D13" s="83"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="84">
         <v>41051</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="57"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="42"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="23" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="54"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="53"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="54"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="21" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="71" t="s">
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B18:K18"/>
     <mergeCell ref="B22:K22"/>
@@ -4786,6 +4761,28 @@
     <mergeCell ref="B26:K26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="G27:K27"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4801,7 +4798,7 @@
   <dimension ref="B4:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:K22"/>
+      <selection activeCell="B20" sqref="B20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4822,358 +4819,377 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="31">
         <v>3</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="28">
+      <c r="I5" s="73"/>
+      <c r="J5" s="61">
         <v>1</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="30" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="2:11" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="90"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="87"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="90"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="87"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+      <c r="B12" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="59" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="91">
         <v>41052</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="27.75" customHeight="1" thickBot="1">
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="90"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="87"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="90"/>
+      <c r="B22" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="87"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="23" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="54"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="53"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="54"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="21" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:K14"/>
     <mergeCell ref="B15:K15"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="G28:K28"/>
@@ -5190,25 +5206,6 @@
     <mergeCell ref="B20:K20"/>
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:K14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5245,362 +5242,359 @@
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="31">
         <v>4</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30" t="s">
+      <c r="F5" s="61"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="31"/>
-      <c r="J5" s="28">
+      <c r="I5" s="73"/>
+      <c r="J5" s="61">
         <v>1</v>
       </c>
-      <c r="K5" s="32"/>
+      <c r="K5" s="74"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="30" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="54"/>
     </row>
     <row r="9" spans="2:11" ht="36" customHeight="1">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="60"/>
     </row>
     <row r="11" spans="2:11" ht="54" customHeight="1">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="49"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
     </row>
     <row r="12" spans="2:11" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="59" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="67"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="55"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="2:11" ht="28.5" customHeight="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="35"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B22" s="33"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="35"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="25"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="23" t="s">
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="54"/>
+      <c r="J24" s="30"/>
       <c r="K24" s="7"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="53"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="54"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="21" t="s">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="22"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="70"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="G27:K27"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I23:J23"/>
@@ -5615,15 +5609,18 @@
     <mergeCell ref="B20:K20"/>
     <mergeCell ref="B21:K21"/>
     <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="720" r:id="rId1"/>
@@ -5653,15 +5650,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
     </row>
     <row r="3" spans="2:8" ht="27">
       <c r="B3" s="9" t="s">
